--- a/schedule2015.xlsx
+++ b/schedule2015.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="2015 Chron Schedule Word-kae" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="1042">
   <si>
     <t>Time</t>
   </si>
@@ -1824,9 +1824,6 @@
     <t>War At Sea R1/8</t>
   </si>
   <si>
-    <t>Wilderness War R1/4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wooden Ships &amp; Iron Men R1/3 FF </t>
   </si>
   <si>
@@ -2053,9 +2050,6 @@
   </si>
   <si>
     <t>Tzolk'in D1/1</t>
-  </si>
-  <si>
-    <t>Terrace 8</t>
   </si>
   <si>
     <t>Global Mogul H2/3</t>
@@ -3159,6 +3153,20 @@
   </si>
   <si>
     <t xml:space="preserve">Waterloo F </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wilderness War </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R1/5</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4074,11 +4082,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K816"/>
+  <dimension ref="A1:K815"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K763" sqref="K763"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K413" sqref="K413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4139,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -4172,7 +4180,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -4190,7 +4198,7 @@
         <v>550</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>88</v>
@@ -4238,7 +4246,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -4271,7 +4279,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -4304,7 +4312,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -4322,7 +4330,7 @@
         <v>550</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>88</v>
@@ -4337,7 +4345,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -4370,7 +4378,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -4467,7 +4475,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -4485,7 +4493,7 @@
         <v>550</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>88</v>
@@ -4500,7 +4508,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -4533,7 +4541,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -4566,7 +4574,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -4617,7 +4625,7 @@
         <v>550</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>88</v>
@@ -4698,7 +4706,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -4797,7 +4805,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
@@ -4826,7 +4834,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -5020,7 +5028,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D29" s="9">
         <v>6</v>
@@ -5053,7 +5061,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D30" s="9">
         <v>6</v>
@@ -5100,7 +5108,7 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>55</v>
@@ -5124,7 +5132,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
@@ -5133,7 +5141,7 @@
         <v>550</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>78</v>
@@ -5177,7 +5185,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D34" s="7">
         <v>4</v>
@@ -5245,7 +5253,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
@@ -5259,7 +5267,7 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>47</v>
@@ -5274,7 +5282,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D37" s="9">
         <v>1</v>
@@ -5290,7 +5298,7 @@
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>142</v>
@@ -5305,7 +5313,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -5321,7 +5329,7 @@
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>142</v>
@@ -5336,7 +5344,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -5352,7 +5360,7 @@
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>142</v>
@@ -5367,7 +5375,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -5383,7 +5391,7 @@
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>142</v>
@@ -5398,7 +5406,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -5414,7 +5422,7 @@
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>142</v>
@@ -5584,7 +5592,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
@@ -5770,7 +5778,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
@@ -5799,7 +5807,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
@@ -5828,7 +5836,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D55" s="9">
         <v>6</v>
@@ -5859,7 +5867,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D56" s="3">
         <v>6</v>
@@ -5890,7 +5898,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D57" s="3">
         <v>6</v>
@@ -5921,7 +5929,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
@@ -6012,7 +6020,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D61" s="9">
         <v>3</v>
@@ -6045,7 +6053,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D62" s="9">
         <v>3</v>
@@ -6061,7 +6069,7 @@
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>110</v>
@@ -6092,7 +6100,7 @@
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>35</v>
@@ -6123,7 +6131,7 @@
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>110</v>
@@ -6138,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D65" s="9">
         <v>5</v>
@@ -7014,7 +7022,7 @@
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>55</v>
@@ -7029,7 +7037,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D94" s="3">
         <v>2</v>
@@ -7047,7 +7055,7 @@
         <v>550</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>110</v>
@@ -7091,7 +7099,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D96" s="9">
         <v>2</v>
@@ -7122,7 +7130,7 @@
         <v>23</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D97" s="3">
         <v>2</v>
@@ -7153,7 +7161,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D98" s="3">
         <v>2</v>
@@ -7184,7 +7192,7 @@
         <v>15</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D99" s="3">
         <v>2</v>
@@ -7215,7 +7223,7 @@
         <v>16</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D100" s="9">
         <v>2</v>
@@ -7273,12 +7281,12 @@
         <v>18</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G102" s="7">
         <v>4</v>
@@ -7300,7 +7308,7 @@
         <v>10</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -7312,7 +7320,7 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>110</v>
@@ -7341,7 +7349,7 @@
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>28</v>
@@ -7372,7 +7380,7 @@
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>51</v>
@@ -7403,7 +7411,7 @@
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>90</v>
@@ -7436,7 +7444,7 @@
         <v>550</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>90</v>
@@ -7484,7 +7492,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D109" s="11">
         <v>3</v>
@@ -7517,7 +7525,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D110" s="11">
         <v>3</v>
@@ -7552,7 +7560,7 @@
         <v>22</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D111" s="7">
         <v>6</v>
@@ -7568,7 +7576,7 @@
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>142</v>
@@ -7583,7 +7591,7 @@
         <v>9</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D112" s="3">
         <v>6</v>
@@ -7601,7 +7609,7 @@
         <v>550</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>33</v>
@@ -7616,7 +7624,7 @@
         <v>10</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -7643,7 +7651,7 @@
         <v>17</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
@@ -7657,7 +7665,7 @@
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>13</v>
@@ -7684,11 +7692,11 @@
         <v>17</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>33</v>
@@ -7705,7 +7713,7 @@
         <v>13</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D116" s="11">
         <v>1</v>
@@ -7717,13 +7725,13 @@
         <v>17</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>550</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J116" s="11" t="s">
         <v>33</v>
@@ -7835,7 +7843,7 @@
         <v>11</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
@@ -7864,7 +7872,7 @@
         <v>13</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D121" s="3">
         <v>4</v>
@@ -7895,7 +7903,7 @@
         <v>16</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D122" s="3">
         <v>4</v>
@@ -7926,7 +7934,7 @@
         <v>19</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D123" s="3">
         <v>4</v>
@@ -7959,7 +7967,7 @@
         <v>9</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D124" s="3">
         <v>4</v>
@@ -7985,14 +7993,14 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="5">
-        <v>42222</v>
+      <c r="A125" s="15">
+        <v>42223</v>
       </c>
       <c r="B125" s="11">
         <v>15</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D125" s="3">
         <v>4</v>
@@ -8014,18 +8022,18 @@
         <v>110</v>
       </c>
       <c r="K125" s="5">
-        <v>42147</v>
+        <v>42151</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="5">
-        <v>42222</v>
+      <c r="A126" s="15">
+        <v>42223</v>
       </c>
       <c r="B126" s="11">
         <v>19</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D126" s="3">
         <v>4</v>
@@ -8047,18 +8055,18 @@
         <v>110</v>
       </c>
       <c r="K126" s="5">
-        <v>42147</v>
+        <v>42151</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
-        <v>42223</v>
+      <c r="A127" s="15">
+        <v>42224</v>
       </c>
       <c r="B127" s="3">
         <v>9</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D127" s="3">
         <v>4</v>
@@ -8080,7 +8088,7 @@
         <v>110</v>
       </c>
       <c r="K127" s="5">
-        <v>42147</v>
+        <v>42151</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -8091,7 +8099,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -8118,7 +8126,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
@@ -8147,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D130" s="3">
         <v>4</v>
@@ -8209,7 +8217,7 @@
         <v>16</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D132" s="9">
         <v>4</v>
@@ -8242,7 +8250,7 @@
         <v>15</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -8310,7 +8318,7 @@
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J135" s="7" t="s">
         <v>81</v>
@@ -8451,7 +8459,7 @@
         <v>14</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7" t="s">
@@ -8468,7 +8476,7 @@
         <v>157</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="K140" s="8"/>
     </row>
@@ -8480,7 +8488,7 @@
         <v>12</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D141" s="9">
         <v>1</v>
@@ -8511,7 +8519,7 @@
         <v>15</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -8542,7 +8550,7 @@
         <v>19</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D143" s="3">
         <v>1</v>
@@ -8573,7 +8581,7 @@
         <v>10</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
@@ -8604,7 +8612,7 @@
         <v>14</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7" t="s">
@@ -8618,7 +8626,7 @@
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J145" s="7" t="s">
         <v>55</v>
@@ -8633,7 +8641,7 @@
         <v>18</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D146" s="3">
         <v>4</v>
@@ -8649,7 +8657,7 @@
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>110</v>
@@ -8664,7 +8672,7 @@
         <v>9</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D147" s="3">
         <v>4</v>
@@ -8682,7 +8690,7 @@
         <v>550</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>110</v>
@@ -8714,7 +8722,7 @@
         <v>115</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K148" s="8"/>
     </row>
@@ -8726,7 +8734,7 @@
         <v>19</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D149" s="9">
         <v>4</v>
@@ -8881,7 +8889,7 @@
         <v>9</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D154" s="3">
         <v>1</v>
@@ -8897,7 +8905,7 @@
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>78</v>
@@ -8912,7 +8920,7 @@
         <v>11</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D155" s="3">
         <v>1</v>
@@ -8930,7 +8938,7 @@
         <v>550</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>78</v>
@@ -9009,7 +9017,7 @@
         <v>17</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D158" s="3">
         <v>3</v>
@@ -9040,7 +9048,7 @@
         <v>19</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D159" s="3">
         <v>3</v>
@@ -9071,7 +9079,7 @@
         <v>16</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -9098,7 +9106,7 @@
         <v>16</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -9110,7 +9118,7 @@
       </c>
       <c r="H161" s="7"/>
       <c r="I161" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J161" s="7" t="s">
         <v>13</v>
@@ -9125,7 +9133,7 @@
         <v>16</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -9170,7 +9178,7 @@
         <v>550</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>74</v>
@@ -9239,7 +9247,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
-        <v>42222</v>
+        <v>42223</v>
       </c>
       <c r="B166" s="3">
         <v>9</v>
@@ -9267,7 +9275,7 @@
         <v>30</v>
       </c>
       <c r="K166" s="5">
-        <v>42147</v>
+        <v>42151</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -9497,7 +9505,7 @@
         <v>17</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7" t="s">
@@ -9526,7 +9534,7 @@
         <v>18</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D175" s="3">
         <v>1</v>
@@ -9557,7 +9565,7 @@
         <v>9</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D176" s="3">
         <v>1</v>
@@ -9588,7 +9596,7 @@
         <v>11</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D177" s="3">
         <v>1</v>
@@ -9619,7 +9627,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D178" s="9">
         <v>1</v>
@@ -9652,7 +9660,7 @@
         <v>14</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7" t="s">
@@ -9681,7 +9689,7 @@
         <v>20</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D180" s="3">
         <v>3</v>
@@ -9700,7 +9708,7 @@
         <v>312</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="K180" s="8"/>
     </row>
@@ -9712,7 +9720,7 @@
         <v>15</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D181" s="3">
         <v>3</v>
@@ -9731,7 +9739,7 @@
         <v>312</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K181" s="8"/>
     </row>
@@ -9743,7 +9751,7 @@
         <v>15</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D182" s="3">
         <v>3</v>
@@ -9762,7 +9770,7 @@
         <v>312</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K182" s="8"/>
     </row>
@@ -9774,7 +9782,7 @@
         <v>18</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D183" s="9">
         <v>3</v>
@@ -9795,7 +9803,7 @@
         <v>312</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K183" s="8"/>
     </row>
@@ -9819,7 +9827,7 @@
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J184" s="7" t="s">
         <v>66</v>
@@ -9834,7 +9842,7 @@
         <v>15</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -9875,7 +9883,7 @@
       </c>
       <c r="H186" s="7"/>
       <c r="I186" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J186" s="7" t="s">
         <v>55</v>
@@ -9892,7 +9900,7 @@
         <v>19</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D187" s="9">
         <v>5</v>
@@ -9908,7 +9916,7 @@
       </c>
       <c r="H187" s="9"/>
       <c r="I187" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J187" s="9" t="s">
         <v>173</v>
@@ -9939,7 +9947,7 @@
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>170</v>
@@ -9970,7 +9978,7 @@
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J189" s="3" t="s">
         <v>173</v>
@@ -9985,7 +9993,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -10074,7 +10082,7 @@
         <v>12</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
@@ -10088,7 +10096,7 @@
       </c>
       <c r="H193" s="7"/>
       <c r="I193" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J193" s="7" t="s">
         <v>13</v>
@@ -10103,7 +10111,7 @@
         <v>13</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D194" s="3">
         <v>1</v>
@@ -10119,7 +10127,7 @@
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J194" s="3" t="s">
         <v>19</v>
@@ -10134,7 +10142,7 @@
         <v>20</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D195" s="3">
         <v>1</v>
@@ -10150,7 +10158,7 @@
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J195" s="3" t="s">
         <v>19</v>
@@ -10165,7 +10173,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D196" s="3">
         <v>1</v>
@@ -10181,7 +10189,7 @@
       </c>
       <c r="H196" s="3"/>
       <c r="I196" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>38</v>
@@ -10196,7 +10204,7 @@
         <v>11</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D197" s="9">
         <v>1</v>
@@ -10214,7 +10222,7 @@
         <v>550</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J197" s="9" t="s">
         <v>38</v>
@@ -10243,7 +10251,7 @@
       </c>
       <c r="H198" s="7"/>
       <c r="I198" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J198" s="7" t="s">
         <v>63</v>
@@ -10274,7 +10282,7 @@
       </c>
       <c r="H199" s="3"/>
       <c r="I199" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J199" s="3" t="s">
         <v>171</v>
@@ -10289,7 +10297,7 @@
         <v>10</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D200" s="3">
         <v>1</v>
@@ -10307,7 +10315,7 @@
         <v>550</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J200" s="3" t="s">
         <v>110</v>
@@ -10351,7 +10359,7 @@
         <v>21</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D202" s="3">
         <v>3</v>
@@ -10382,7 +10390,7 @@
         <v>15</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D203" s="3">
         <v>3</v>
@@ -10413,7 +10421,7 @@
         <v>9</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D204" s="3">
         <v>3</v>
@@ -10477,7 +10485,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -10489,7 +10497,7 @@
       </c>
       <c r="H206" s="7"/>
       <c r="I206" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J206" s="7" t="s">
         <v>142</v>
@@ -10504,7 +10512,7 @@
         <v>15</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7" t="s">
@@ -10545,7 +10553,7 @@
       </c>
       <c r="H208" s="7"/>
       <c r="I208" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J208" s="7" t="s">
         <v>142</v>
@@ -10682,7 +10690,7 @@
         <v>18</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7" t="s">
@@ -11085,7 +11093,7 @@
         <v>13</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -11112,7 +11120,7 @@
         <v>15</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -11168,7 +11176,7 @@
         <v>23</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D229" s="9">
         <v>3</v>
@@ -11726,7 +11734,7 @@
         <v>16</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>5</v>
@@ -11757,7 +11765,7 @@
         <v>12</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D248" s="9">
         <v>3</v>
@@ -11788,7 +11796,7 @@
         <v>15</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D249" s="3">
         <v>3</v>
@@ -11819,7 +11827,7 @@
         <v>17</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D250" s="3">
         <v>3</v>
@@ -11850,7 +11858,7 @@
         <v>9</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D251" s="3">
         <v>3</v>
@@ -11881,7 +11889,7 @@
         <v>15</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -12032,7 +12040,7 @@
         <v>10</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D257" s="7"/>
       <c r="E257" s="7" t="s">
@@ -12061,7 +12069,7 @@
         <v>9</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D258" s="7"/>
       <c r="E258" s="7" t="s">
@@ -12090,7 +12098,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D259" s="3">
         <v>1</v>
@@ -12121,7 +12129,7 @@
         <v>15</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D260" s="3">
         <v>1</v>
@@ -12152,7 +12160,7 @@
         <v>10</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D261" s="3">
         <v>1</v>
@@ -12183,7 +12191,7 @@
         <v>15</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D262" s="3">
         <v>1</v>
@@ -12214,7 +12222,7 @@
         <v>11</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D263" s="9">
         <v>1</v>
@@ -12247,7 +12255,7 @@
         <v>21</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D264" s="3">
         <v>3</v>
@@ -12278,7 +12286,7 @@
         <v>13</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -12305,7 +12313,7 @@
         <v>18</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D266" s="9">
         <v>1</v>
@@ -12321,7 +12329,7 @@
       </c>
       <c r="H266" s="9"/>
       <c r="I266" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J266" s="9" t="s">
         <v>110</v>
@@ -12336,7 +12344,7 @@
         <v>9</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D267" s="3">
         <v>1</v>
@@ -12352,7 +12360,7 @@
       </c>
       <c r="H267" s="3"/>
       <c r="I267" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J267" s="3" t="s">
         <v>173</v>
@@ -12367,7 +12375,7 @@
         <v>21</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D268" s="3">
         <v>1</v>
@@ -12383,7 +12391,7 @@
       </c>
       <c r="H268" s="3"/>
       <c r="I268" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J268" s="3" t="s">
         <v>173</v>
@@ -12398,7 +12406,7 @@
         <v>9</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D269" s="9">
         <v>1</v>
@@ -12414,7 +12422,7 @@
       </c>
       <c r="H269" s="9"/>
       <c r="I269" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J269" s="9" t="s">
         <v>171</v>
@@ -12429,7 +12437,7 @@
         <v>15</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D270" s="3">
         <v>1</v>
@@ -12460,7 +12468,7 @@
         <v>19</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D271" s="7"/>
       <c r="E271" s="7" t="s">
@@ -12489,7 +12497,7 @@
         <v>20</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D272" s="9">
         <v>1</v>
@@ -12505,7 +12513,7 @@
       </c>
       <c r="H272" s="9"/>
       <c r="I272" s="9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J272" s="9" t="s">
         <v>90</v>
@@ -12520,7 +12528,7 @@
         <v>11</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D273" s="3">
         <v>1</v>
@@ -12536,7 +12544,7 @@
       </c>
       <c r="H273" s="3"/>
       <c r="I273" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J273" s="3" t="s">
         <v>74</v>
@@ -12551,7 +12559,7 @@
         <v>21</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D274" s="3">
         <v>1</v>
@@ -12567,7 +12575,7 @@
       </c>
       <c r="H274" s="3"/>
       <c r="I274" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J274" s="3" t="s">
         <v>30</v>
@@ -12582,7 +12590,7 @@
         <v>9</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D275" s="3">
         <v>1</v>
@@ -12598,7 +12606,7 @@
       </c>
       <c r="H275" s="3"/>
       <c r="I275" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J275" s="3" t="s">
         <v>74</v>
@@ -12613,7 +12621,7 @@
         <v>15</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D276" s="9">
         <v>1</v>
@@ -12629,7 +12637,7 @@
       </c>
       <c r="H276" s="9"/>
       <c r="I276" s="9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J276" s="9" t="s">
         <v>90</v>
@@ -12673,7 +12681,7 @@
         <v>20</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D278" s="9">
         <v>2</v>
@@ -12799,7 +12807,7 @@
         <v>15</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D282" s="3">
         <v>4</v>
@@ -13169,7 +13177,7 @@
         <v>20</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D294" s="3">
         <v>1</v>
@@ -13200,7 +13208,7 @@
         <v>21</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D295" s="3">
         <v>1</v>
@@ -13231,7 +13239,7 @@
         <v>18</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D296" s="3">
         <v>1</v>
@@ -13479,7 +13487,7 @@
         <v>12</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -13491,7 +13499,7 @@
       </c>
       <c r="H304" s="7"/>
       <c r="I304" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="J304" s="7" t="s">
         <v>142</v>
@@ -13535,7 +13543,7 @@
         <v>20</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D306" s="7"/>
       <c r="E306" s="7" t="s">
@@ -13564,7 +13572,7 @@
         <v>11</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D307" s="7"/>
       <c r="E307" s="7" t="s">
@@ -13578,7 +13586,7 @@
       </c>
       <c r="H307" s="7"/>
       <c r="I307" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J307" s="7" t="s">
         <v>81</v>
@@ -13593,7 +13601,7 @@
         <v>22</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D308" s="3">
         <v>3</v>
@@ -13624,7 +13632,7 @@
         <v>23</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D309" s="3">
         <v>3</v>
@@ -13655,7 +13663,7 @@
         <v>14</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D310" s="3">
         <v>3</v>
@@ -13719,7 +13727,7 @@
         <v>10</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D312" s="7"/>
       <c r="E312" s="7" t="s">
@@ -13843,7 +13851,7 @@
         <v>17</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D316" s="7"/>
       <c r="E316" s="7" t="s">
@@ -13903,7 +13911,7 @@
         <v>19</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D318" s="3">
         <v>1</v>
@@ -13934,7 +13942,7 @@
         <v>19</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D319" s="3">
         <v>1</v>
@@ -13965,7 +13973,7 @@
         <v>12</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D320" s="3">
         <v>1</v>
@@ -14056,7 +14064,7 @@
         <v>9</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D323" s="9">
         <v>1</v>
@@ -14089,7 +14097,7 @@
         <v>11</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D324" s="3">
         <v>1</v>
@@ -14122,7 +14130,7 @@
         <v>9</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D325" s="9">
         <v>1</v>
@@ -14167,7 +14175,7 @@
       </c>
       <c r="H326" s="7"/>
       <c r="I326" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J326" s="7" t="s">
         <v>63</v>
@@ -14182,7 +14190,7 @@
         <v>9</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D327" s="3">
         <v>3</v>
@@ -14200,7 +14208,7 @@
         <v>550</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J327" s="3" t="s">
         <v>110</v>
@@ -14246,7 +14254,7 @@
         <v>19</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D329" s="11">
         <v>6</v>
@@ -14279,7 +14287,7 @@
         <v>9</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D330" s="11">
         <v>6</v>
@@ -14314,7 +14322,7 @@
         <v>18</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D331" s="7"/>
       <c r="E331" s="7" t="s">
@@ -14343,7 +14351,7 @@
         <v>9</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D332" s="9">
         <v>5</v>
@@ -14483,7 +14491,7 @@
       </c>
       <c r="H336" s="7"/>
       <c r="I336" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J336" s="7" t="s">
         <v>81</v>
@@ -14498,7 +14506,7 @@
         <v>12</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D337" s="9">
         <v>6</v>
@@ -14514,7 +14522,7 @@
       </c>
       <c r="H337" s="9"/>
       <c r="I337" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J337" s="9" t="s">
         <v>51</v>
@@ -14545,7 +14553,7 @@
       </c>
       <c r="H338" s="3"/>
       <c r="I338" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J338" s="3" t="s">
         <v>35</v>
@@ -14576,7 +14584,7 @@
       </c>
       <c r="H339" s="3"/>
       <c r="I339" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J339" s="3" t="s">
         <v>35</v>
@@ -14607,7 +14615,7 @@
       </c>
       <c r="H340" s="9"/>
       <c r="I340" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J340" s="9" t="s">
         <v>110</v>
@@ -14622,7 +14630,7 @@
         <v>10</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D341" s="7"/>
       <c r="E341" s="7" t="s">
@@ -14639,7 +14647,7 @@
         <v>70</v>
       </c>
       <c r="J341" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K341" s="8"/>
     </row>
@@ -14670,7 +14678,7 @@
         <v>70</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K342" s="8"/>
     </row>
@@ -14715,7 +14723,7 @@
         <v>13</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D344" s="7"/>
       <c r="E344" s="7" t="s">
@@ -14744,7 +14752,7 @@
         <v>14</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D345" s="3">
         <v>1</v>
@@ -14775,7 +14783,7 @@
         <v>21</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D346" s="7"/>
       <c r="E346" s="7" t="s">
@@ -14789,7 +14797,7 @@
       </c>
       <c r="H346" s="7"/>
       <c r="I346" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J346" s="7" t="s">
         <v>63</v>
@@ -14804,7 +14812,7 @@
         <v>22</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D347" s="3">
         <v>3</v>
@@ -14820,7 +14828,7 @@
       </c>
       <c r="H347" s="3"/>
       <c r="I347" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J347" s="3" t="s">
         <v>78</v>
@@ -14835,7 +14843,7 @@
         <v>22</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D348" s="3">
         <v>3</v>
@@ -14851,7 +14859,7 @@
       </c>
       <c r="H348" s="3"/>
       <c r="I348" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J348" s="3" t="s">
         <v>78</v>
@@ -14866,7 +14874,7 @@
         <v>22</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D349" s="3">
         <v>3</v>
@@ -14882,7 +14890,7 @@
       </c>
       <c r="H349" s="3"/>
       <c r="I349" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J349" s="3" t="s">
         <v>30</v>
@@ -14915,7 +14923,7 @@
         <v>550</v>
       </c>
       <c r="I350" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J350" s="7" t="s">
         <v>30</v>
@@ -15037,7 +15045,7 @@
       </c>
       <c r="H354" s="7"/>
       <c r="I354" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J354" s="7" t="s">
         <v>13</v>
@@ -15068,7 +15076,7 @@
       </c>
       <c r="H355" s="3"/>
       <c r="I355" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J355" s="3" t="s">
         <v>30</v>
@@ -15099,7 +15107,7 @@
       </c>
       <c r="H356" s="3"/>
       <c r="I356" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J356" s="3" t="s">
         <v>30</v>
@@ -15130,7 +15138,7 @@
       </c>
       <c r="H357" s="3"/>
       <c r="I357" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J357" s="3" t="s">
         <v>51</v>
@@ -15163,7 +15171,7 @@
         <v>550</v>
       </c>
       <c r="I358" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J358" s="7" t="s">
         <v>30</v>
@@ -15192,7 +15200,7 @@
       </c>
       <c r="H359" s="7"/>
       <c r="I359" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J359" s="7" t="s">
         <v>55</v>
@@ -15225,7 +15233,7 @@
         <v>550</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J360" s="3" t="s">
         <v>110</v>
@@ -15240,7 +15248,7 @@
         <v>19</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D361" s="3">
         <v>3</v>
@@ -15256,7 +15264,7 @@
       </c>
       <c r="H361" s="3"/>
       <c r="I361" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J361" s="3" t="s">
         <v>110</v>
@@ -15271,7 +15279,7 @@
         <v>22</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D362" s="3">
         <v>3</v>
@@ -15287,7 +15295,7 @@
       </c>
       <c r="H362" s="3"/>
       <c r="I362" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J362" s="3" t="s">
         <v>110</v>
@@ -15453,7 +15461,7 @@
         <v>10</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D368" s="9">
         <v>1</v>
@@ -15486,7 +15494,7 @@
         <v>12</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D369" s="9">
         <v>1</v>
@@ -15519,7 +15527,7 @@
         <v>14</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D370" s="7"/>
       <c r="E370" s="7" t="s">
@@ -15548,7 +15556,7 @@
         <v>15</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D371" s="3">
         <v>1</v>
@@ -15579,7 +15587,7 @@
         <v>17</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D372" s="3">
         <v>1</v>
@@ -15610,7 +15618,7 @@
         <v>15</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D373" s="9">
         <v>1</v>
@@ -15672,7 +15680,7 @@
         <v>23</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D375" s="3">
         <v>2</v>
@@ -15969,10 +15977,10 @@
       </c>
       <c r="H384" s="7"/>
       <c r="I384" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J384" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K384" s="8"/>
     </row>
@@ -16000,10 +16008,10 @@
       </c>
       <c r="H385" s="3"/>
       <c r="I385" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="J385" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="J385" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="K385" s="8"/>
     </row>
@@ -16033,7 +16041,7 @@
         <v>550</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J386" s="3" t="s">
         <v>181</v>
@@ -16065,7 +16073,7 @@
         <v>188</v>
       </c>
       <c r="J387" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K387" s="8"/>
     </row>
@@ -16127,7 +16135,7 @@
         <v>188</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K389" s="8"/>
     </row>
@@ -16230,7 +16238,7 @@
         <v>20</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D393" s="3">
         <v>1</v>
@@ -16261,7 +16269,7 @@
         <v>20</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D394" s="3">
         <v>1</v>
@@ -16292,7 +16300,7 @@
         <v>20</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D395" s="3">
         <v>1</v>
@@ -16389,7 +16397,7 @@
         <v>15</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -16443,7 +16451,7 @@
         <v>21</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D400" s="7"/>
       <c r="E400" s="7" t="s">
@@ -16457,7 +16465,7 @@
       </c>
       <c r="H400" s="7"/>
       <c r="I400" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J400" s="7" t="s">
         <v>13</v>
@@ -16472,7 +16480,7 @@
         <v>10</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D401" s="7"/>
       <c r="E401" s="7" t="s">
@@ -16486,7 +16494,7 @@
       </c>
       <c r="H401" s="7"/>
       <c r="I401" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J401" s="7" t="s">
         <v>13</v>
@@ -16501,7 +16509,7 @@
         <v>22</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D402" s="3">
         <v>1</v>
@@ -16517,7 +16525,7 @@
       </c>
       <c r="H402" s="3"/>
       <c r="I402" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J402" s="3" t="s">
         <v>75</v>
@@ -16532,7 +16540,7 @@
         <v>16</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D403" s="3">
         <v>1</v>
@@ -16548,7 +16556,7 @@
       </c>
       <c r="H403" s="3"/>
       <c r="I403" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J403" s="3" t="s">
         <v>74</v>
@@ -16563,7 +16571,7 @@
         <v>17</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D404" s="3">
         <v>1</v>
@@ -16579,7 +16587,7 @@
       </c>
       <c r="H404" s="3"/>
       <c r="I404" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J404" s="3" t="s">
         <v>19</v>
@@ -16594,7 +16602,7 @@
         <v>20</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D405" s="9">
         <v>1</v>
@@ -16612,7 +16620,7 @@
         <v>550</v>
       </c>
       <c r="I405" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J405" s="9" t="s">
         <v>75</v>
@@ -16656,7 +16664,7 @@
         <v>23</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D407" s="3">
         <v>3</v>
@@ -16687,7 +16695,7 @@
         <v>20</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D408" s="3">
         <v>3</v>
@@ -16718,7 +16726,7 @@
         <v>9</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D409" s="3">
         <v>3</v>
@@ -16749,7 +16757,7 @@
         <v>18</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D410" s="3">
         <v>3</v>
@@ -16789,10 +16797,10 @@
         <v>20</v>
       </c>
       <c r="F411" s="9" t="s">
-        <v>959</v>
-      </c>
-      <c r="G411" s="9">
-        <v>1</v>
+        <v>957</v>
+      </c>
+      <c r="G411" s="12">
+        <v>0.5</v>
       </c>
       <c r="H411" s="9" t="s">
         <v>550</v>
@@ -16803,7 +16811,9 @@
       <c r="J411" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K411" s="8"/>
+      <c r="K411" s="5">
+        <v>42151</v>
+      </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="5">
@@ -16813,7 +16823,7 @@
         <v>18</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D412" s="7"/>
       <c r="E412" s="7" t="s">
@@ -16827,7 +16837,7 @@
       </c>
       <c r="H412" s="7"/>
       <c r="I412" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J412" s="7" t="s">
         <v>47</v>
@@ -16842,7 +16852,7 @@
         <v>15</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D413" s="7"/>
       <c r="E413" s="7" t="s">
@@ -16856,7 +16866,7 @@
       </c>
       <c r="H413" s="7"/>
       <c r="I413" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J413" s="7" t="s">
         <v>47</v>
@@ -16871,7 +16881,7 @@
         <v>15</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D414" s="7"/>
       <c r="E414" s="7" t="s">
@@ -16885,7 +16895,7 @@
       </c>
       <c r="H414" s="7"/>
       <c r="I414" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J414" s="7" t="s">
         <v>47</v>
@@ -16900,7 +16910,7 @@
         <v>18</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D415" s="7"/>
       <c r="E415" s="7" t="s">
@@ -16914,7 +16924,7 @@
       </c>
       <c r="H415" s="7"/>
       <c r="I415" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J415" s="7" t="s">
         <v>47</v>
@@ -16929,7 +16939,7 @@
         <v>9</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D416" s="3">
         <v>1</v>
@@ -16945,7 +16955,7 @@
       </c>
       <c r="H416" s="3"/>
       <c r="I416" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J416" s="3" t="s">
         <v>110</v>
@@ -16960,7 +16970,7 @@
         <v>11</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D417" s="3">
         <v>1</v>
@@ -16976,7 +16986,7 @@
       </c>
       <c r="H417" s="3"/>
       <c r="I417" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J417" s="3" t="s">
         <v>110</v>
@@ -16991,7 +17001,7 @@
         <v>14</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D418" s="3">
         <v>1</v>
@@ -17007,7 +17017,7 @@
       </c>
       <c r="H418" s="3"/>
       <c r="I418" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J418" s="3" t="s">
         <v>110</v>
@@ -17022,7 +17032,7 @@
         <v>16</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D419" s="3">
         <v>1</v>
@@ -17038,7 +17048,7 @@
       </c>
       <c r="H419" s="3"/>
       <c r="I419" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J419" s="3" t="s">
         <v>110</v>
@@ -17053,7 +17063,7 @@
         <v>10</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D420" s="9">
         <v>1</v>
@@ -17069,7 +17079,7 @@
       </c>
       <c r="H420" s="9"/>
       <c r="I420" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J420" s="9" t="s">
         <v>110</v>
@@ -17080,11 +17090,11 @@
       <c r="A421" s="5">
         <v>42224</v>
       </c>
-      <c r="B421" s="9">
-        <v>14</v>
+      <c r="B421" s="12">
+        <v>13</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D421" s="9">
         <v>1</v>
@@ -17102,12 +17112,14 @@
         <v>550</v>
       </c>
       <c r="I421" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J421" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K421" s="8"/>
+      <c r="K421" s="5">
+        <v>42151</v>
+      </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="5">
@@ -17117,7 +17129,7 @@
         <v>18</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D422" s="7"/>
       <c r="E422" s="7" t="s">
@@ -17146,7 +17158,7 @@
         <v>14</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D423" s="9">
         <v>1</v>
@@ -17165,9 +17177,11 @@
         <v>27</v>
       </c>
       <c r="J423" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K423" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="K423" s="5">
+        <v>42151</v>
+      </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="5">
@@ -17177,7 +17191,7 @@
         <v>19</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D424" s="3">
         <v>1</v>
@@ -17208,7 +17222,7 @@
         <v>9</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D425" s="3">
         <v>1</v>
@@ -17270,7 +17284,7 @@
         <v>17</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D427" s="3">
         <v>1</v>
@@ -17332,7 +17346,7 @@
         <v>20</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D429" s="3">
         <v>2</v>
@@ -17365,7 +17379,7 @@
         <v>9</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D430" s="3">
         <v>2</v>
@@ -17398,7 +17412,7 @@
         <v>9</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D431" s="3">
         <v>2</v>
@@ -17431,7 +17445,7 @@
         <v>19</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D432" s="3">
         <v>2</v>
@@ -17464,7 +17478,7 @@
         <v>9</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D433" s="9">
         <v>2</v>
@@ -17497,7 +17511,7 @@
         <v>9</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D434" s="3">
         <v>1</v>
@@ -17528,7 +17542,7 @@
         <v>14</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D435" s="3">
         <v>1</v>
@@ -17559,7 +17573,7 @@
         <v>19</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D436" s="3">
         <v>1</v>
@@ -17716,7 +17730,7 @@
         <v>10</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -17743,7 +17757,7 @@
         <v>20</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -17770,7 +17784,7 @@
         <v>14</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -17797,7 +17811,7 @@
         <v>14</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -17824,7 +17838,7 @@
         <v>11</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -18006,7 +18020,7 @@
         <v>13</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -18018,7 +18032,7 @@
       </c>
       <c r="H451" s="7"/>
       <c r="I451" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J451" s="7" t="s">
         <v>49</v>
@@ -18033,7 +18047,7 @@
         <v>19</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D452" s="7"/>
       <c r="E452" s="7" t="s">
@@ -18062,7 +18076,7 @@
         <v>19</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D453" s="7"/>
       <c r="E453" s="7" t="s">
@@ -18091,7 +18105,7 @@
         <v>20</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D454" s="3">
         <v>1</v>
@@ -18122,7 +18136,7 @@
         <v>20</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D455" s="3">
         <v>1</v>
@@ -18153,7 +18167,7 @@
         <v>20</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D456" s="3">
         <v>1</v>
@@ -18184,7 +18198,7 @@
         <v>9</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D457" s="3">
         <v>1</v>
@@ -18262,7 +18276,7 @@
       </c>
       <c r="H459" s="7"/>
       <c r="I459" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J459" s="7" t="s">
         <v>63</v>
@@ -18277,7 +18291,7 @@
         <v>19</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D460" s="3">
         <v>3</v>
@@ -18293,7 +18307,7 @@
       </c>
       <c r="H460" s="3"/>
       <c r="I460" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J460" s="3" t="s">
         <v>110</v>
@@ -18308,7 +18322,7 @@
         <v>9</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D461" s="3">
         <v>3</v>
@@ -18326,10 +18340,10 @@
         <v>550</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K461" s="8"/>
     </row>
@@ -18341,7 +18355,7 @@
         <v>21</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D462" s="3">
         <v>3</v>
@@ -18357,10 +18371,10 @@
       </c>
       <c r="H462" s="3"/>
       <c r="I462" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K462" s="5">
         <v>42147</v>
@@ -18374,7 +18388,7 @@
         <v>9</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D463" s="3">
         <v>3</v>
@@ -18390,10 +18404,10 @@
       </c>
       <c r="H463" s="3"/>
       <c r="I463" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J463" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K463" s="5">
         <v>42147</v>
@@ -18436,7 +18450,7 @@
         <v>18</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D465" s="9">
         <v>5</v>
@@ -18813,7 +18827,7 @@
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
       <c r="F477" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G477" s="7">
         <v>15</v>
@@ -18840,7 +18854,7 @@
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
       <c r="F478" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G478" s="7">
         <v>15</v>
@@ -18867,7 +18881,7 @@
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
       <c r="F479" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G479" s="7">
         <v>15</v>
@@ -18894,7 +18908,7 @@
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
       <c r="F480" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G480" s="7">
         <v>15</v>
@@ -18921,7 +18935,7 @@
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
       <c r="F481" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G481" s="7">
         <v>15</v>
@@ -18948,7 +18962,7 @@
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
       <c r="F482" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G482" s="7">
         <v>15</v>
@@ -18970,12 +18984,12 @@
         <v>9</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
       <c r="F483" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G483" s="7">
         <v>8</v>
@@ -18985,7 +18999,7 @@
         <v>65</v>
       </c>
       <c r="J483" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K483" s="8"/>
     </row>
@@ -18997,7 +19011,7 @@
         <v>15</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D484" s="7"/>
       <c r="E484" s="7" t="s">
@@ -19026,7 +19040,7 @@
         <v>20</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D485" s="7"/>
       <c r="E485" s="7" t="s">
@@ -19181,7 +19195,7 @@
         <v>9</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D490" s="3">
         <v>6</v>
@@ -19212,7 +19226,7 @@
         <v>17</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D491" s="3">
         <v>6</v>
@@ -19245,7 +19259,7 @@
         <v>9</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D492" s="3">
         <v>6</v>
@@ -19276,7 +19290,7 @@
         <v>17</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D493" s="3">
         <v>6</v>
@@ -19309,7 +19323,7 @@
         <v>9</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D494" s="3">
         <v>6</v>
@@ -19371,7 +19385,7 @@
         <v>13</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D496" s="3">
         <v>3</v>
@@ -19402,7 +19416,7 @@
         <v>13</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
@@ -19431,7 +19445,7 @@
         <v>9</v>
       </c>
       <c r="C498" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D498" s="9">
         <v>3</v>
@@ -19495,7 +19509,7 @@
         <v>14</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D500" s="3">
         <v>3</v>
@@ -19743,7 +19757,7 @@
         <v>21</v>
       </c>
       <c r="C508" s="9" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D508" s="9">
         <v>5</v>
@@ -19915,7 +19929,7 @@
         <v>223</v>
       </c>
       <c r="J513" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="K513" s="8"/>
     </row>
@@ -19946,7 +19960,7 @@
         <v>223</v>
       </c>
       <c r="J514" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K514" s="8"/>
     </row>
@@ -19977,7 +19991,7 @@
         <v>223</v>
       </c>
       <c r="J515" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K515" s="8"/>
     </row>
@@ -20235,7 +20249,7 @@
         <v>15</v>
       </c>
       <c r="C524" s="9" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D524" s="9">
         <v>4</v>
@@ -20313,7 +20327,7 @@
       </c>
       <c r="H526" s="7"/>
       <c r="I526" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J526" s="7" t="s">
         <v>47</v>
@@ -20344,7 +20358,7 @@
       </c>
       <c r="H527" s="3"/>
       <c r="I527" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J527" s="3" t="s">
         <v>74</v>
@@ -20375,7 +20389,7 @@
       </c>
       <c r="H528" s="3"/>
       <c r="I528" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J528" s="3" t="s">
         <v>74</v>
@@ -20406,7 +20420,7 @@
       </c>
       <c r="H529" s="3"/>
       <c r="I529" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J529" s="3" t="s">
         <v>74</v>
@@ -20437,7 +20451,7 @@
       </c>
       <c r="H530" s="3"/>
       <c r="I530" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J530" s="3" t="s">
         <v>74</v>
@@ -20470,7 +20484,7 @@
         <v>550</v>
       </c>
       <c r="I531" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J531" s="9" t="s">
         <v>74</v>
@@ -20485,7 +20499,7 @@
         <v>15</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D532" s="3">
         <v>3</v>
@@ -20516,7 +20530,7 @@
         <v>9</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D533" s="3">
         <v>3</v>
@@ -20547,7 +20561,7 @@
         <v>18</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D534" s="3">
         <v>3</v>
@@ -20578,7 +20592,7 @@
         <v>12</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D535" s="3">
         <v>3</v>
@@ -20609,7 +20623,7 @@
         <v>15</v>
       </c>
       <c r="C536" s="9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D536" s="9">
         <v>3</v>
@@ -20642,7 +20656,7 @@
         <v>14</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D537" s="7"/>
       <c r="E537" s="7" t="s">
@@ -20828,7 +20842,7 @@
         <v>17</v>
       </c>
       <c r="C543" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D543" s="9">
         <v>5</v>
@@ -20844,7 +20858,7 @@
       </c>
       <c r="H543" s="9"/>
       <c r="I543" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J543" s="9" t="s">
         <v>51</v>
@@ -20875,7 +20889,7 @@
       </c>
       <c r="H544" s="3"/>
       <c r="I544" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J544" s="3" t="s">
         <v>51</v>
@@ -20906,7 +20920,7 @@
       </c>
       <c r="H545" s="3"/>
       <c r="I545" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J545" s="3" t="s">
         <v>51</v>
@@ -20937,7 +20951,7 @@
       </c>
       <c r="H546" s="3"/>
       <c r="I546" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J546" s="3" t="s">
         <v>51</v>
@@ -20968,7 +20982,7 @@
       </c>
       <c r="H547" s="9"/>
       <c r="I547" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J547" s="9" t="s">
         <v>51</v>
@@ -20983,7 +20997,7 @@
         <v>22</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D548" s="7"/>
       <c r="E548" s="7" t="s">
@@ -20997,7 +21011,7 @@
       </c>
       <c r="H548" s="7"/>
       <c r="I548" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J548" s="7" t="s">
         <v>49</v>
@@ -21012,7 +21026,7 @@
         <v>22</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D549" s="7"/>
       <c r="E549" s="7" t="s">
@@ -21026,7 +21040,7 @@
       </c>
       <c r="H549" s="7"/>
       <c r="I549" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J549" s="7" t="s">
         <v>49</v>
@@ -21041,7 +21055,7 @@
         <v>22</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D550" s="7"/>
       <c r="E550" s="7" t="s">
@@ -21055,7 +21069,7 @@
       </c>
       <c r="H550" s="7"/>
       <c r="I550" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J550" s="7" t="s">
         <v>49</v>
@@ -21070,7 +21084,7 @@
         <v>23</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D551" s="3">
         <v>1</v>
@@ -21088,7 +21102,7 @@
         <v>550</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J551" s="3" t="s">
         <v>74</v>
@@ -21105,7 +21119,7 @@
         <v>8</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D552" s="8"/>
       <c r="E552" s="7"/>
@@ -21132,7 +21146,7 @@
         <v>8</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
@@ -21159,7 +21173,7 @@
         <v>8</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D554" s="7"/>
       <c r="E554" s="7"/>
@@ -21186,7 +21200,7 @@
         <v>8</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D555" s="7"/>
       <c r="E555" s="7"/>
@@ -21213,7 +21227,7 @@
         <v>8</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D556" s="7"/>
       <c r="E556" s="7"/>
@@ -21240,7 +21254,7 @@
         <v>8</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D557" s="7"/>
       <c r="E557" s="7"/>
@@ -21267,7 +21281,7 @@
         <v>8</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D558" s="7"/>
       <c r="E558" s="7"/>
@@ -21294,7 +21308,7 @@
         <v>8</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D559" s="7"/>
       <c r="E559" s="7"/>
@@ -21321,7 +21335,7 @@
         <v>8</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D560" s="7"/>
       <c r="E560" s="7"/>
@@ -21362,7 +21376,7 @@
       </c>
       <c r="H561" s="7"/>
       <c r="I561" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J561" s="7" t="s">
         <v>81</v>
@@ -21393,7 +21407,7 @@
       </c>
       <c r="H562" s="9"/>
       <c r="I562" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J562" s="9" t="s">
         <v>110</v>
@@ -21424,7 +21438,7 @@
       </c>
       <c r="H563" s="3"/>
       <c r="I563" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J563" s="3" t="s">
         <v>110</v>
@@ -21455,7 +21469,7 @@
       </c>
       <c r="H564" s="3"/>
       <c r="I564" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J564" s="3" t="s">
         <v>110</v>
@@ -21499,7 +21513,7 @@
         <v>9</v>
       </c>
       <c r="C566" s="9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D566" s="9">
         <v>5</v>
@@ -21654,7 +21668,7 @@
         <v>17</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D571" s="3"/>
       <c r="E571" s="3" t="s">
@@ -21683,7 +21697,7 @@
         <v>20</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D572" s="7"/>
       <c r="E572" s="7" t="s">
@@ -21712,7 +21726,7 @@
         <v>9</v>
       </c>
       <c r="C573" s="9" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D573" s="9">
         <v>1</v>
@@ -21743,7 +21757,7 @@
         <v>18</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D574" s="3">
         <v>1</v>
@@ -21774,7 +21788,7 @@
         <v>23</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D575" s="3">
         <v>1</v>
@@ -21805,7 +21819,7 @@
         <v>11</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D576" s="3">
         <v>1</v>
@@ -21836,7 +21850,7 @@
         <v>9</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D577" s="3">
         <v>1</v>
@@ -21867,7 +21881,7 @@
         <v>23</v>
       </c>
       <c r="C578" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D578" s="9">
         <v>1</v>
@@ -21898,7 +21912,7 @@
         <v>17</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D579" s="7"/>
       <c r="E579" s="7" t="s">
@@ -21912,7 +21926,7 @@
       </c>
       <c r="H579" s="7"/>
       <c r="I579" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J579" s="7" t="s">
         <v>13</v>
@@ -21927,7 +21941,7 @@
         <v>19</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D580" s="3">
         <v>1</v>
@@ -21943,7 +21957,7 @@
       </c>
       <c r="H580" s="3"/>
       <c r="I580" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J580" s="3" t="s">
         <v>173</v>
@@ -21958,7 +21972,7 @@
         <v>9</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D581" s="3">
         <v>1</v>
@@ -21976,7 +21990,7 @@
         <v>550</v>
       </c>
       <c r="I581" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J581" s="3" t="s">
         <v>110</v>
@@ -21991,7 +22005,7 @@
         <v>9</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D582" s="3">
         <v>4</v>
@@ -22007,7 +22021,7 @@
       </c>
       <c r="H582" s="3"/>
       <c r="I582" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J582" s="3" t="s">
         <v>170</v>
@@ -22022,7 +22036,7 @@
         <v>10</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D583" s="3">
         <v>4</v>
@@ -22053,7 +22067,7 @@
         <v>9</v>
       </c>
       <c r="C584" s="9" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D584" s="9">
         <v>4</v>
@@ -22071,7 +22085,7 @@
         <v>550</v>
       </c>
       <c r="I584" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J584" s="9" t="s">
         <v>170</v>
@@ -22086,7 +22100,7 @@
         <v>17</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D585" s="7"/>
       <c r="E585" s="7" t="s">
@@ -22115,7 +22129,7 @@
         <v>13</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D586" s="7"/>
       <c r="E586" s="7" t="s">
@@ -22144,7 +22158,7 @@
         <v>18</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D587" s="3">
         <v>1</v>
@@ -22175,7 +22189,7 @@
         <v>16</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D588" s="3">
         <v>1</v>
@@ -22206,7 +22220,7 @@
         <v>17</v>
       </c>
       <c r="C589" s="9" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D589" s="9">
         <v>1</v>
@@ -22256,7 +22270,7 @@
         <v>256</v>
       </c>
       <c r="J590" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K590" s="8"/>
     </row>
@@ -22268,7 +22282,7 @@
         <v>18</v>
       </c>
       <c r="C591" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D591" s="9">
         <v>4</v>
@@ -22392,7 +22406,7 @@
         <v>22</v>
       </c>
       <c r="C595" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D595" s="9">
         <v>4</v>
@@ -22423,7 +22437,7 @@
         <v>18</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D596" s="7"/>
       <c r="E596" s="7" t="s">
@@ -22437,7 +22451,7 @@
       </c>
       <c r="H596" s="8"/>
       <c r="I596" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J596" s="7" t="s">
         <v>63</v>
@@ -22452,7 +22466,7 @@
         <v>9</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D597" s="3">
         <v>4</v>
@@ -22468,7 +22482,7 @@
       </c>
       <c r="H597" s="3"/>
       <c r="I597" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J597" s="3" t="s">
         <v>78</v>
@@ -22483,7 +22497,7 @@
         <v>13</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D598" s="3">
         <v>4</v>
@@ -22501,7 +22515,7 @@
         <v>550</v>
       </c>
       <c r="I598" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J598" s="3" t="s">
         <v>78</v>
@@ -22885,7 +22899,7 @@
         <v>19</v>
       </c>
       <c r="C611" s="9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D611" s="9">
         <v>1</v>
@@ -22916,7 +22930,7 @@
         <v>14</v>
       </c>
       <c r="C612" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D612" s="9">
         <v>1</v>
@@ -23261,7 +23275,7 @@
         <v>9</v>
       </c>
       <c r="C623" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D623" s="9">
         <v>3</v>
@@ -23385,7 +23399,7 @@
         <v>20</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D627" s="7"/>
       <c r="E627" s="7" t="s">
@@ -23399,7 +23413,7 @@
       </c>
       <c r="H627" s="7"/>
       <c r="I627" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J627" s="7" t="s">
         <v>13</v>
@@ -23414,7 +23428,7 @@
         <v>21</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D628" s="3">
         <v>1</v>
@@ -23430,7 +23444,7 @@
       </c>
       <c r="H628" s="3"/>
       <c r="I628" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J628" s="3" t="s">
         <v>30</v>
@@ -23445,7 +23459,7 @@
         <v>12</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D629" s="3">
         <v>1</v>
@@ -23461,7 +23475,7 @@
       </c>
       <c r="H629" s="3"/>
       <c r="I629" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J629" s="3" t="s">
         <v>30</v>
@@ -23476,7 +23490,7 @@
         <v>20</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D630" s="3">
         <v>1</v>
@@ -23492,7 +23506,7 @@
       </c>
       <c r="H630" s="3"/>
       <c r="I630" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J630" s="3" t="s">
         <v>30</v>
@@ -23507,7 +23521,7 @@
         <v>9</v>
       </c>
       <c r="C631" s="9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D631" s="9">
         <v>1</v>
@@ -23525,7 +23539,7 @@
         <v>550</v>
       </c>
       <c r="I631" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J631" s="9" t="s">
         <v>30</v>
@@ -23540,7 +23554,7 @@
         <v>20</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D632" s="7"/>
       <c r="E632" s="7" t="s">
@@ -23600,7 +23614,7 @@
         <v>10</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D634" s="3">
         <v>3</v>
@@ -23631,7 +23645,7 @@
         <v>9</v>
       </c>
       <c r="C635" s="9" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D635" s="9">
         <v>3</v>
@@ -23664,7 +23678,7 @@
         <v>20</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D636" s="3">
         <v>1</v>
@@ -23695,7 +23709,7 @@
         <v>21</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D637" s="3">
         <v>1</v>
@@ -23726,7 +23740,7 @@
         <v>20</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D638" s="3">
         <v>1</v>
@@ -23757,7 +23771,7 @@
         <v>9</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D639" s="3">
         <v>1</v>
@@ -23788,7 +23802,7 @@
         <v>13</v>
       </c>
       <c r="C640" s="9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D640" s="9">
         <v>1</v>
@@ -23821,7 +23835,7 @@
         <v>21</v>
       </c>
       <c r="C641" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D641" s="9">
         <v>1</v>
@@ -23854,7 +23868,7 @@
         <v>21</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D642" s="3">
         <v>3</v>
@@ -23885,7 +23899,7 @@
         <v>21</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D643" s="3">
         <v>3</v>
@@ -23916,7 +23930,7 @@
         <v>20</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D644" s="3">
         <v>3</v>
@@ -23947,7 +23961,7 @@
         <v>12</v>
       </c>
       <c r="C645" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D645" s="9">
         <v>3</v>
@@ -23980,7 +23994,7 @@
         <v>13</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D646" s="7"/>
       <c r="E646" s="7"/>
@@ -23992,7 +24006,7 @@
       </c>
       <c r="H646" s="7"/>
       <c r="I646" s="7" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J646" s="7" t="s">
         <v>142</v>
@@ -24007,7 +24021,7 @@
         <v>18</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D647" s="7"/>
       <c r="E647" s="7" t="s">
@@ -24024,7 +24038,7 @@
         <v>498</v>
       </c>
       <c r="J647" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K647" s="8"/>
     </row>
@@ -24036,7 +24050,7 @@
         <v>14</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D648" s="7"/>
       <c r="E648" s="7" t="s">
@@ -24053,7 +24067,7 @@
         <v>498</v>
       </c>
       <c r="J648" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K648" s="8"/>
     </row>
@@ -24065,7 +24079,7 @@
         <v>9</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D649" s="7"/>
       <c r="E649" s="7" t="s">
@@ -24082,7 +24096,7 @@
         <v>498</v>
       </c>
       <c r="J649" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K649" s="8"/>
     </row>
@@ -24094,7 +24108,7 @@
         <v>17</v>
       </c>
       <c r="C650" s="9" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D650" s="9">
         <v>3</v>
@@ -24113,7 +24127,7 @@
         <v>498</v>
       </c>
       <c r="J650" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K650" s="8"/>
     </row>
@@ -24125,7 +24139,7 @@
         <v>19</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D651" s="3">
         <v>3</v>
@@ -24144,7 +24158,7 @@
         <v>498</v>
       </c>
       <c r="J651" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K651" s="8"/>
     </row>
@@ -24156,7 +24170,7 @@
         <v>15</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D652" s="3">
         <v>3</v>
@@ -24175,7 +24189,7 @@
         <v>498</v>
       </c>
       <c r="J652" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K652" s="8"/>
     </row>
@@ -24187,7 +24201,7 @@
         <v>10</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D653" s="3">
         <v>3</v>
@@ -24206,7 +24220,7 @@
         <v>498</v>
       </c>
       <c r="J653" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K653" s="8"/>
     </row>
@@ -24340,7 +24354,7 @@
         <v>9</v>
       </c>
       <c r="C658" s="9" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D658" s="9">
         <v>6</v>
@@ -24373,7 +24387,7 @@
         <v>19</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D659" s="7"/>
       <c r="E659" s="7" t="s">
@@ -24387,7 +24401,7 @@
       </c>
       <c r="H659" s="7"/>
       <c r="I659" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J659" s="7" t="s">
         <v>47</v>
@@ -24402,7 +24416,7 @@
         <v>20</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D660" s="3">
         <v>1</v>
@@ -24418,7 +24432,7 @@
       </c>
       <c r="H660" s="3"/>
       <c r="I660" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J660" s="3" t="s">
         <v>171</v>
@@ -24433,7 +24447,7 @@
         <v>9</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D661" s="3">
         <v>1</v>
@@ -24451,7 +24465,7 @@
         <v>550</v>
       </c>
       <c r="I661" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J661" s="3" t="s">
         <v>110</v>
@@ -24617,7 +24631,7 @@
         <v>9</v>
       </c>
       <c r="C667" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D667" s="9">
         <v>3</v>
@@ -24650,7 +24664,7 @@
         <v>17</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D668" s="7"/>
       <c r="E668" s="7"/>
@@ -24677,7 +24691,7 @@
         <v>19</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D669" s="7"/>
       <c r="E669" s="7" t="s">
@@ -24706,7 +24720,7 @@
         <v>20</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D670" s="3">
         <v>1</v>
@@ -24737,7 +24751,7 @@
         <v>20</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D671" s="3">
         <v>1</v>
@@ -24768,7 +24782,7 @@
         <v>21</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D672" s="7">
         <v>1</v>
@@ -24801,12 +24815,12 @@
         <v>15</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D673" s="8"/>
       <c r="E673" s="8"/>
       <c r="F673" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G673" s="7">
         <v>7.5</v>
@@ -24824,7 +24838,7 @@
         <v>10</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D674" s="7"/>
       <c r="E674" s="7" t="s">
@@ -24946,7 +24960,7 @@
         <v>10</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D678" s="3">
         <v>6</v>
@@ -25008,7 +25022,7 @@
         <v>22</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D680" s="7"/>
       <c r="E680" s="7" t="s">
@@ -25130,7 +25144,7 @@
         <v>9</v>
       </c>
       <c r="C684" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D684" s="9">
         <v>4</v>
@@ -25285,7 +25299,7 @@
         <v>9</v>
       </c>
       <c r="C689" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D689" s="9">
         <v>6</v>
@@ -25318,7 +25332,7 @@
         <v>22</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D690" s="7"/>
       <c r="E690" s="7" t="s">
@@ -25332,7 +25346,7 @@
       </c>
       <c r="H690" s="7"/>
       <c r="I690" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J690" s="7" t="s">
         <v>63</v>
@@ -25347,7 +25361,7 @@
         <v>9</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D691" s="3">
         <v>1</v>
@@ -25365,7 +25379,7 @@
         <v>550</v>
       </c>
       <c r="I691" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J691" s="3" t="s">
         <v>110</v>
@@ -25409,7 +25423,7 @@
         <v>9</v>
       </c>
       <c r="C693" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D693" s="9">
         <v>5</v>
@@ -25502,7 +25516,7 @@
         <v>13</v>
       </c>
       <c r="C696" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D696" s="12">
         <v>5</v>
@@ -25535,7 +25549,7 @@
         <v>14</v>
       </c>
       <c r="C697" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D697" s="12">
         <v>5</v>
@@ -25568,7 +25582,7 @@
         <v>21</v>
       </c>
       <c r="C698" s="11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D698" s="12">
         <v>5</v>
@@ -25601,7 +25615,7 @@
         <v>9</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D699" s="9">
         <v>5</v>
@@ -25632,7 +25646,7 @@
         <v>13</v>
       </c>
       <c r="C700" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D700" s="12">
         <v>5</v>
@@ -25665,7 +25679,7 @@
         <v>17</v>
       </c>
       <c r="C701" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D701" s="12">
         <v>5</v>
@@ -25698,7 +25712,7 @@
         <v>21</v>
       </c>
       <c r="C702" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D702" s="12">
         <v>5</v>
@@ -25791,7 +25805,7 @@
         <v>20</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D705" s="3">
         <v>3</v>
@@ -25824,7 +25838,7 @@
         <v>16</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D706" s="7"/>
       <c r="E706" s="7" t="s">
@@ -25853,7 +25867,7 @@
         <v>17</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D707" s="3">
         <v>3</v>
@@ -25872,7 +25886,7 @@
         <v>143</v>
       </c>
       <c r="J707" s="11" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="K707" s="5">
         <v>42147</v>
@@ -25886,7 +25900,7 @@
         <v>23</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D708" s="3">
         <v>3</v>
@@ -25916,7 +25930,7 @@
         <v>14</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D709" s="3">
         <v>3</v>
@@ -25947,7 +25961,7 @@
         <v>16</v>
       </c>
       <c r="C710" s="9" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D710" s="9">
         <v>3</v>
@@ -26131,8 +26145,8 @@
       <c r="A716" s="5">
         <v>42222</v>
       </c>
-      <c r="B716" s="7">
-        <v>16</v>
+      <c r="B716" s="13">
+        <v>17</v>
       </c>
       <c r="C716" s="7" t="s">
         <v>402</v>
@@ -26154,7 +26168,9 @@
       <c r="J716" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K716" s="8"/>
+      <c r="K716" s="5">
+        <v>42151</v>
+      </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="5">
@@ -26197,7 +26213,7 @@
         <v>19</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D718" s="7"/>
       <c r="E718" s="7" t="s">
@@ -26211,7 +26227,7 @@
       </c>
       <c r="H718" s="7"/>
       <c r="I718" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J718" s="7" t="s">
         <v>28</v>
@@ -26226,7 +26242,7 @@
         <v>20</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D719" s="3">
         <v>3</v>
@@ -26242,7 +26258,7 @@
       </c>
       <c r="H719" s="3"/>
       <c r="I719" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J719" s="3" t="s">
         <v>78</v>
@@ -26257,7 +26273,7 @@
         <v>9</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D720" s="3">
         <v>3</v>
@@ -26273,7 +26289,7 @@
       </c>
       <c r="H720" s="3"/>
       <c r="I720" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J720" s="3" t="s">
         <v>19</v>
@@ -26288,7 +26304,7 @@
         <v>20</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D721" s="3">
         <v>3</v>
@@ -26304,7 +26320,7 @@
       </c>
       <c r="H721" s="3"/>
       <c r="I721" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J721" s="3" t="s">
         <v>19</v>
@@ -26319,7 +26335,7 @@
         <v>9</v>
       </c>
       <c r="C722" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D722" s="9">
         <v>3</v>
@@ -26337,7 +26353,7 @@
         <v>550</v>
       </c>
       <c r="I722" s="9" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J722" s="9" t="s">
         <v>51</v>
@@ -26352,7 +26368,7 @@
         <v>14</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D723" s="3">
         <v>1</v>
@@ -26385,7 +26401,7 @@
         <v>18</v>
       </c>
       <c r="C724" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D724" s="11">
         <v>1</v>
@@ -26637,7 +26653,7 @@
         <v>18</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D732" s="7"/>
       <c r="E732" s="7"/>
@@ -26664,7 +26680,7 @@
         <v>10</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D733" s="7"/>
       <c r="E733" s="7"/>
@@ -26772,7 +26788,7 @@
         <v>9</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D737" s="7"/>
       <c r="E737" s="7" t="s">
@@ -26801,7 +26817,7 @@
         <v>10</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D738" s="3">
         <v>1</v>
@@ -26834,7 +26850,7 @@
         <v>22</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D739" s="3">
         <v>1</v>
@@ -26900,7 +26916,7 @@
         <v>10</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D741" s="7"/>
       <c r="E741" s="7" t="s">
@@ -27086,7 +27102,7 @@
         <v>9</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D747" s="3">
         <v>3</v>
@@ -27102,7 +27118,7 @@
       </c>
       <c r="H747" s="3"/>
       <c r="I747" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J747" s="3" t="s">
         <v>38</v>
@@ -27117,7 +27133,7 @@
         <v>19</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D748" s="3">
         <v>3</v>
@@ -27135,7 +27151,7 @@
         <v>550</v>
       </c>
       <c r="I748" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J748" s="3" t="s">
         <v>110</v>
@@ -27150,7 +27166,7 @@
         <v>20</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D749" s="3">
         <v>1</v>
@@ -27168,7 +27184,7 @@
         <v>550</v>
       </c>
       <c r="I749" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J749" s="3" t="s">
         <v>171</v>
@@ -27338,7 +27354,7 @@
         <v>10</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D755" s="3">
         <v>4</v>
@@ -27369,7 +27385,7 @@
         <v>9</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D756" s="3">
         <v>4</v>
@@ -27385,7 +27401,7 @@
       </c>
       <c r="H756" s="3"/>
       <c r="I756" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J756" s="3" t="s">
         <v>170</v>
@@ -27400,7 +27416,7 @@
         <v>10</v>
       </c>
       <c r="C757" s="9" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D757" s="9">
         <v>4</v>
@@ -27416,7 +27432,7 @@
       </c>
       <c r="H757" s="9"/>
       <c r="I757" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J757" s="9" t="s">
         <v>170</v>
@@ -27431,7 +27447,7 @@
         <v>15</v>
       </c>
       <c r="C758" s="12" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D758" s="12">
         <v>4</v>
@@ -27447,7 +27463,7 @@
       </c>
       <c r="H758" s="12"/>
       <c r="I758" s="12" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J758" s="12" t="s">
         <v>170</v>
@@ -27677,7 +27693,7 @@
         <v>9</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>601</v>
+        <v>1041</v>
       </c>
       <c r="D766" s="3">
         <v>3</v>
@@ -27700,14 +27716,16 @@
       <c r="J766" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K766" s="8"/>
+      <c r="K766" s="5">
+        <v>42151</v>
+      </c>
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="5">
         <v>42220</v>
       </c>
       <c r="B767" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C767" s="7" t="s">
         <v>224</v>
@@ -27727,79 +27745,81 @@
         <v>62</v>
       </c>
       <c r="J767" s="7" t="s">
-        <v>678</v>
+        <v>55</v>
       </c>
       <c r="K767" s="8"/>
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="5">
-        <v>42220</v>
-      </c>
-      <c r="B768" s="7">
-        <v>22</v>
-      </c>
-      <c r="C768" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D768" s="7"/>
-      <c r="E768" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F768" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G768" s="7">
-        <v>1</v>
-      </c>
-      <c r="H768" s="7"/>
-      <c r="I768" s="7" t="s">
+        <v>42224</v>
+      </c>
+      <c r="B768" s="9">
+        <v>19</v>
+      </c>
+      <c r="C768" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="D768" s="9">
+        <v>1</v>
+      </c>
+      <c r="E768" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F768" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G768" s="9">
+        <v>3</v>
+      </c>
+      <c r="H768" s="9"/>
+      <c r="I768" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J768" s="7" t="s">
-        <v>55</v>
+      <c r="J768" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="K768" s="8"/>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="5">
-        <v>42224</v>
-      </c>
-      <c r="B769" s="9">
+        <v>42218</v>
+      </c>
+      <c r="B769" s="3">
         <v>19</v>
       </c>
-      <c r="C769" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="D769" s="9">
-        <v>1</v>
-      </c>
-      <c r="E769" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F769" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G769" s="9">
+      <c r="C769" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D769" s="3">
+        <v>1</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G769" s="3">
         <v>3</v>
       </c>
-      <c r="H769" s="9"/>
-      <c r="I769" s="9" t="s">
+      <c r="H769" s="8"/>
+      <c r="I769" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J769" s="9" t="s">
-        <v>38</v>
+      <c r="J769" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K769" s="8"/>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="5">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="B770" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="D770" s="3">
         <v>1</v>
@@ -27813,24 +27833,24 @@
       <c r="G770" s="3">
         <v>3</v>
       </c>
-      <c r="H770" s="8"/>
+      <c r="H770" s="3"/>
       <c r="I770" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J770" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K770" s="8"/>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="5">
-        <v>42220</v>
+        <v>42223</v>
       </c>
       <c r="B771" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>229</v>
+        <v>422</v>
       </c>
       <c r="D771" s="3">
         <v>1</v>
@@ -27849,19 +27869,19 @@
         <v>62</v>
       </c>
       <c r="J771" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K771" s="8"/>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="5">
-        <v>42223</v>
+        <v>42224</v>
       </c>
       <c r="B772" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>422</v>
+        <v>515</v>
       </c>
       <c r="D772" s="3">
         <v>1</v>
@@ -27880,7 +27900,7 @@
         <v>62</v>
       </c>
       <c r="J772" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K772" s="8"/>
     </row>
@@ -27888,57 +27908,55 @@
       <c r="A773" s="5">
         <v>42224</v>
       </c>
-      <c r="B773" s="3">
-        <v>16</v>
-      </c>
-      <c r="C773" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D773" s="3">
-        <v>1</v>
-      </c>
-      <c r="E773" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F773" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G773" s="3">
-        <v>3</v>
-      </c>
-      <c r="H773" s="3"/>
-      <c r="I773" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J773" s="3" t="s">
-        <v>38</v>
+      <c r="B773" s="7">
+        <v>19</v>
+      </c>
+      <c r="C773" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="D773" s="7"/>
+      <c r="E773" s="7"/>
+      <c r="F773" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G773" s="7">
+        <v>2</v>
+      </c>
+      <c r="H773" s="7"/>
+      <c r="I773" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="J773" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="K773" s="8"/>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="5">
-        <v>42224</v>
+        <v>42221</v>
       </c>
       <c r="B774" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>948</v>
+        <v>257</v>
       </c>
       <c r="D774" s="7"/>
-      <c r="E774" s="7"/>
+      <c r="E774" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F774" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G774" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H774" s="7"/>
       <c r="I774" s="7" t="s">
-        <v>432</v>
+        <v>253</v>
       </c>
       <c r="J774" s="7" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="K774" s="8"/>
     </row>
@@ -27946,182 +27964,180 @@
       <c r="A775" s="5">
         <v>42221</v>
       </c>
-      <c r="B775" s="7">
-        <v>10</v>
-      </c>
-      <c r="C775" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D775" s="7"/>
-      <c r="E775" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F775" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G775" s="7">
-        <v>1</v>
-      </c>
-      <c r="H775" s="7"/>
-      <c r="I775" s="7" t="s">
+      <c r="B775" s="3">
+        <v>9</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D775" s="3">
+        <v>3</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G775" s="3">
+        <v>2</v>
+      </c>
+      <c r="H775" s="3"/>
+      <c r="I775" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J775" s="7" t="s">
-        <v>47</v>
+      <c r="J775" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="K775" s="8"/>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="5">
-        <v>42221</v>
-      </c>
-      <c r="B776" s="3">
-        <v>9</v>
-      </c>
-      <c r="C776" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="D776" s="3">
+        <v>42224</v>
+      </c>
+      <c r="B776" s="9">
+        <v>18</v>
+      </c>
+      <c r="C776" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="D776" s="9">
         <v>3</v>
       </c>
-      <c r="E776" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F776" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G776" s="3">
+      <c r="E776" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F776" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G776" s="9">
         <v>2</v>
       </c>
-      <c r="H776" s="3"/>
-      <c r="I776" s="3" t="s">
+      <c r="H776" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="I776" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J776" s="3" t="s">
+      <c r="J776" s="9" t="s">
         <v>170</v>
       </c>
       <c r="K776" s="8"/>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="5">
-        <v>42224</v>
-      </c>
-      <c r="B777" s="9">
+        <v>42217</v>
+      </c>
+      <c r="B777" s="3">
+        <v>10</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D777" s="3">
+        <v>3</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G777" s="3">
+        <v>2</v>
+      </c>
+      <c r="H777" s="8"/>
+      <c r="I777" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C777" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="D777" s="9">
-        <v>3</v>
-      </c>
-      <c r="E777" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F777" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G777" s="9">
-        <v>2</v>
-      </c>
-      <c r="H777" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="I777" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="J777" s="9" t="s">
-        <v>170</v>
+      <c r="J777" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K777" s="8"/>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="5">
-        <v>42217</v>
+        <v>42220</v>
       </c>
       <c r="B778" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>1040</v>
+        <v>182</v>
       </c>
       <c r="D778" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E778" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F778" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G778" s="3">
-        <v>2</v>
-      </c>
-      <c r="H778" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="H778" s="3"/>
       <c r="I778" s="3" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="J778" s="3" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="K778" s="8"/>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="5">
-        <v>42220</v>
-      </c>
-      <c r="B779" s="3">
-        <v>18</v>
-      </c>
-      <c r="C779" s="3" t="s">
+        <v>42224</v>
+      </c>
+      <c r="B779" s="7">
+        <v>23</v>
+      </c>
+      <c r="C779" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D779" s="3">
+      <c r="D779" s="7">
         <v>6</v>
       </c>
-      <c r="E779" s="3" t="s">
+      <c r="E779" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F779" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G779" s="3">
-        <v>65</v>
-      </c>
-      <c r="H779" s="3"/>
-      <c r="I779" s="3" t="s">
+      <c r="F779" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G779" s="7">
+        <v>1</v>
+      </c>
+      <c r="H779" s="7"/>
+      <c r="I779" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J779" s="3" t="s">
-        <v>110</v>
+      <c r="J779" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="K779" s="8"/>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="5">
-        <v>42224</v>
+        <v>42220</v>
       </c>
       <c r="B780" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D780" s="7">
-        <v>6</v>
-      </c>
-      <c r="E780" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="D780" s="7"/>
+      <c r="E780" s="7"/>
       <c r="F780" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G780" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H780" s="7"/>
       <c r="I780" s="7" t="s">
-        <v>183</v>
+        <v>660</v>
       </c>
       <c r="J780" s="7" t="s">
         <v>142</v>
@@ -28130,40 +28146,42 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="5">
-        <v>42220</v>
+        <v>42219</v>
       </c>
       <c r="B781" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C781" s="7" t="s">
-        <v>660</v>
+        <v>128</v>
       </c>
       <c r="D781" s="7"/>
-      <c r="E781" s="7"/>
+      <c r="E781" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F781" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="G781" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H781" s="7"/>
       <c r="I781" s="7" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="J781" s="7" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="K781" s="8"/>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="5">
-        <v>42219</v>
+        <v>42224</v>
       </c>
       <c r="B782" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C782" s="7" t="s">
-        <v>128</v>
+        <v>521</v>
       </c>
       <c r="D782" s="7"/>
       <c r="E782" s="7" t="s">
@@ -28177,7 +28195,7 @@
       </c>
       <c r="H782" s="7"/>
       <c r="I782" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J782" s="7" t="s">
         <v>55</v>
@@ -28186,42 +28204,44 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="5">
-        <v>42224</v>
-      </c>
-      <c r="B783" s="7">
-        <v>18</v>
-      </c>
-      <c r="C783" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="D783" s="7"/>
-      <c r="E783" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F783" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G783" s="7">
-        <v>1</v>
-      </c>
-      <c r="H783" s="7"/>
-      <c r="I783" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="J783" s="7" t="s">
-        <v>55</v>
+        <v>42219</v>
+      </c>
+      <c r="B783" s="3">
+        <v>22</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D783" s="3">
+        <v>1</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F783" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G783" s="3">
+        <v>1</v>
+      </c>
+      <c r="H783" s="3"/>
+      <c r="I783" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="J783" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K783" s="8"/>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="5">
-        <v>42219</v>
+        <v>42222</v>
       </c>
       <c r="B784" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>652</v>
+        <v>832</v>
       </c>
       <c r="D784" s="3">
         <v>1</v>
@@ -28237,22 +28257,22 @@
       </c>
       <c r="H784" s="3"/>
       <c r="I784" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J784" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K784" s="8"/>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="5">
-        <v>42222</v>
+        <v>42224</v>
       </c>
       <c r="B785" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>834</v>
+        <v>947</v>
       </c>
       <c r="D785" s="3">
         <v>1</v>
@@ -28268,76 +28288,48 @@
       </c>
       <c r="H785" s="3"/>
       <c r="I785" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J785" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K785" s="8"/>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="5">
-        <v>42224</v>
-      </c>
-      <c r="B786" s="3">
-        <v>19</v>
-      </c>
-      <c r="C786" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="D786" s="3">
-        <v>1</v>
-      </c>
-      <c r="E786" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F786" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G786" s="3">
-        <v>1</v>
-      </c>
-      <c r="H786" s="3"/>
-      <c r="I786" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="J786" s="3" t="s">
+        <v>42225</v>
+      </c>
+      <c r="B786" s="9">
+        <v>9</v>
+      </c>
+      <c r="C786" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="D786" s="9">
+        <v>1</v>
+      </c>
+      <c r="E786" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F786" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G786" s="9">
+        <v>1</v>
+      </c>
+      <c r="H786" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="I786" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="J786" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K786" s="8"/>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A787" s="5">
-        <v>42225</v>
-      </c>
-      <c r="B787" s="9">
-        <v>9</v>
-      </c>
-      <c r="C787" s="9" t="s">
-        <v>975</v>
-      </c>
-      <c r="D787" s="9">
-        <v>1</v>
-      </c>
-      <c r="E787" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F787" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G787" s="9">
-        <v>1</v>
-      </c>
-      <c r="H787" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="I787" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="J787" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K787" s="8"/>
+      <c r="A787" s="2"/>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
@@ -28422,9 +28414,6 @@
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A816" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:K726">
